--- a/Derecha.xlsx
+++ b/Derecha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ECI\IABO\Acelerometro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118641DE-0E71-42DC-93B2-F8AB3CFF971D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3A2FC4-739B-4738-9989-24C240343A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D0C8A334-0CE3-4791-ACB1-D63F9ED5F102}"/>
   </bookViews>
@@ -31,6 +31,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73DA1E5-1039-4AF7-B238-3B1A8A1AE3E3}">
-  <dimension ref="A1:F924"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A907" workbookViewId="0">
-      <selection activeCell="C926" sqref="C926"/>
+    <sheetView tabSelected="1" topLeftCell="A989" workbookViewId="0">
+      <selection activeCell="I995" sqref="I995"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18869,6 +18873,1526 @@
         <v>5.1269999999999998</v>
       </c>
     </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A925">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="B925">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="C925">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D925">
+        <v>-295.89800000000002</v>
+      </c>
+      <c r="E925">
+        <v>-5.0659999999999998</v>
+      </c>
+      <c r="F925">
+        <v>-57.311999999999998</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A926">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B926">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="C926">
+        <v>1.165</v>
+      </c>
+      <c r="D926">
+        <v>-107.666</v>
+      </c>
+      <c r="E926">
+        <v>-24.047999999999998</v>
+      </c>
+      <c r="F926">
+        <v>-18.920999999999999</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A927">
+        <v>2.4E-2</v>
+      </c>
+      <c r="B927">
+        <v>0.251</v>
+      </c>
+      <c r="C927">
+        <v>1.163</v>
+      </c>
+      <c r="D927">
+        <v>96.924000000000007</v>
+      </c>
+      <c r="E927">
+        <v>0.183</v>
+      </c>
+      <c r="F927">
+        <v>54.076999999999998</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A928">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="B928">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="C928">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="D928">
+        <v>217.71199999999999</v>
+      </c>
+      <c r="E928">
+        <v>-0.48799999999999999</v>
+      </c>
+      <c r="F928">
+        <v>74.89</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A929">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="B929">
+        <v>-0.39400000000000002</v>
+      </c>
+      <c r="C929">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="D929">
+        <v>184.44800000000001</v>
+      </c>
+      <c r="E929">
+        <v>-24.414000000000001</v>
+      </c>
+      <c r="F929">
+        <v>49.866</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A930">
+        <v>1.4E-2</v>
+      </c>
+      <c r="B930">
+        <v>-0.42699999999999999</v>
+      </c>
+      <c r="C930">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D930">
+        <v>-20.02</v>
+      </c>
+      <c r="E930">
+        <v>-3.9060000000000001</v>
+      </c>
+      <c r="F930">
+        <v>2.0139999999999998</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A931">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="B931">
+        <v>-0.34899999999999998</v>
+      </c>
+      <c r="C931">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="D931">
+        <v>-88.379000000000005</v>
+      </c>
+      <c r="E931">
+        <v>5.0049999999999999</v>
+      </c>
+      <c r="F931">
+        <v>-36.194000000000003</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A932">
+        <v>-0.125</v>
+      </c>
+      <c r="B932">
+        <v>-0.18</v>
+      </c>
+      <c r="C932">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D932">
+        <v>-141.357</v>
+      </c>
+      <c r="E932">
+        <v>25.818000000000001</v>
+      </c>
+      <c r="F932">
+        <v>-38.085999999999999</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A933">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="B933">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C933">
+        <v>1.131</v>
+      </c>
+      <c r="D933">
+        <v>-127.563</v>
+      </c>
+      <c r="E933">
+        <v>16.846</v>
+      </c>
+      <c r="F933">
+        <v>-13.977</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A934">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="B934">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C934">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="D934">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="E934">
+        <v>9.6440000000000001</v>
+      </c>
+      <c r="F934">
+        <v>2.0139999999999998</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A935">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="B935">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C935">
+        <v>1.069</v>
+      </c>
+      <c r="D935">
+        <v>149.23099999999999</v>
+      </c>
+      <c r="E935">
+        <v>-3.2349999999999999</v>
+      </c>
+      <c r="F935">
+        <v>26.978000000000002</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A936">
+        <v>2E-3</v>
+      </c>
+      <c r="B936">
+        <v>-0.16</v>
+      </c>
+      <c r="C936">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="D936">
+        <v>216.73599999999999</v>
+      </c>
+      <c r="E936">
+        <v>-10.254</v>
+      </c>
+      <c r="F936">
+        <v>46.509</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A937">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="B937">
+        <v>-0.60799999999999998</v>
+      </c>
+      <c r="C937">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D937">
+        <v>88.013000000000005</v>
+      </c>
+      <c r="E937">
+        <v>-0.85399999999999998</v>
+      </c>
+      <c r="F937">
+        <v>4.8220000000000001</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A938">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="B938">
+        <v>-0.47799999999999998</v>
+      </c>
+      <c r="C938">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D938">
+        <v>-73.73</v>
+      </c>
+      <c r="E938">
+        <v>-7.8120000000000003</v>
+      </c>
+      <c r="F938">
+        <v>-35.950000000000003</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A939">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="B939">
+        <v>-0.371</v>
+      </c>
+      <c r="C939">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="D939">
+        <v>-86.852999999999994</v>
+      </c>
+      <c r="E939">
+        <v>-2.6859999999999999</v>
+      </c>
+      <c r="F939">
+        <v>-19.225999999999999</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A940">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="B940">
+        <v>-0.13900000000000001</v>
+      </c>
+      <c r="C940">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D940">
+        <v>-174.92699999999999</v>
+      </c>
+      <c r="E940">
+        <v>35.338999999999999</v>
+      </c>
+      <c r="F940">
+        <v>-19.957999999999998</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A941">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="B941">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C941">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="D941">
+        <v>-85.570999999999998</v>
+      </c>
+      <c r="E941">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="F941">
+        <v>6.5919999999999996</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A942">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="B942">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C942">
+        <v>1.151</v>
+      </c>
+      <c r="D942">
+        <v>63.292999999999999</v>
+      </c>
+      <c r="E942">
+        <v>-7.202</v>
+      </c>
+      <c r="F942">
+        <v>19.47</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A943">
+        <v>-0.14199999999999999</v>
+      </c>
+      <c r="B943">
+        <v>-0.188</v>
+      </c>
+      <c r="C943">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D943">
+        <v>239.25800000000001</v>
+      </c>
+      <c r="E943">
+        <v>-23.132000000000001</v>
+      </c>
+      <c r="F943">
+        <v>27.344000000000001</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A944">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="B944">
+        <v>-0.497</v>
+      </c>
+      <c r="C944">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D944">
+        <v>-20.812999999999999</v>
+      </c>
+      <c r="E944">
+        <v>13.122999999999999</v>
+      </c>
+      <c r="F944">
+        <v>-15.442</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A945">
+        <v>-0.17699999999999999</v>
+      </c>
+      <c r="B945">
+        <v>-0.27900000000000003</v>
+      </c>
+      <c r="C945">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D945">
+        <v>-57.921999999999997</v>
+      </c>
+      <c r="E945">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="F945">
+        <v>-26.001000000000001</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A946">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B946">
+        <v>-0.31</v>
+      </c>
+      <c r="C946">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="D946">
+        <v>-57.616999999999997</v>
+      </c>
+      <c r="E946">
+        <v>9.827</v>
+      </c>
+      <c r="F946">
+        <v>-5.6760000000000002</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A947">
+        <v>-0.111</v>
+      </c>
+      <c r="B947">
+        <v>-0.155</v>
+      </c>
+      <c r="C947">
+        <v>0.94</v>
+      </c>
+      <c r="D947">
+        <v>-60.485999999999997</v>
+      </c>
+      <c r="E947">
+        <v>-5.1269999999999998</v>
+      </c>
+      <c r="F947">
+        <v>-23.315000000000001</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A948">
+        <v>2.3E-2</v>
+      </c>
+      <c r="B948">
+        <v>-0.14599999999999999</v>
+      </c>
+      <c r="C948">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D948">
+        <v>-183.411</v>
+      </c>
+      <c r="E948">
+        <v>26.611000000000001</v>
+      </c>
+      <c r="F948">
+        <v>-61.034999999999997</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A949">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="B949">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="C949">
+        <v>1.282</v>
+      </c>
+      <c r="D949">
+        <v>-68.176000000000002</v>
+      </c>
+      <c r="E949">
+        <v>11.657999999999999</v>
+      </c>
+      <c r="F949">
+        <v>-29.419</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A950">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B950">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C950">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="D950">
+        <v>140.869</v>
+      </c>
+      <c r="E950">
+        <v>-19.47</v>
+      </c>
+      <c r="F950">
+        <v>38.024999999999999</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A951">
+        <v>0.03</v>
+      </c>
+      <c r="B951">
+        <v>-0.14599999999999999</v>
+      </c>
+      <c r="C951">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="D951">
+        <v>360.10700000000003</v>
+      </c>
+      <c r="E951">
+        <v>-72.570999999999998</v>
+      </c>
+      <c r="F951">
+        <v>85.266000000000005</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A952">
+        <v>0.15</v>
+      </c>
+      <c r="B952">
+        <v>-0.71499999999999997</v>
+      </c>
+      <c r="C952">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D952">
+        <v>-10.071</v>
+      </c>
+      <c r="E952">
+        <v>-7.3849999999999998</v>
+      </c>
+      <c r="F952">
+        <v>21.056999999999999</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A953">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="B953">
+        <v>-0.29799999999999999</v>
+      </c>
+      <c r="C953">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D953">
+        <v>-109.741</v>
+      </c>
+      <c r="E953">
+        <v>-7.69</v>
+      </c>
+      <c r="F953">
+        <v>-32.593000000000004</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A954">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="B954">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="C954">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="D954">
+        <v>-177.917</v>
+      </c>
+      <c r="E954">
+        <v>38.634999999999998</v>
+      </c>
+      <c r="F954">
+        <v>-34.241</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A955">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B955">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C955">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="D955">
+        <v>-126.526</v>
+      </c>
+      <c r="E955">
+        <v>22.827000000000002</v>
+      </c>
+      <c r="F955">
+        <v>-19.957999999999998</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A956">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="B956">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C956">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="D956">
+        <v>-10.315</v>
+      </c>
+      <c r="E956">
+        <v>18.126999999999999</v>
+      </c>
+      <c r="F956">
+        <v>17.395</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A957">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="B957">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="C957">
+        <v>1.073</v>
+      </c>
+      <c r="D957">
+        <v>185.303</v>
+      </c>
+      <c r="E957">
+        <v>0</v>
+      </c>
+      <c r="F957">
+        <v>42.908000000000001</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A958">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="B958">
+        <v>-0.371</v>
+      </c>
+      <c r="C958">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D958">
+        <v>240.05099999999999</v>
+      </c>
+      <c r="E958">
+        <v>2.38</v>
+      </c>
+      <c r="F958">
+        <v>60.241999999999997</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A959">
+        <v>0.121</v>
+      </c>
+      <c r="B959">
+        <v>-0.59399999999999997</v>
+      </c>
+      <c r="C959">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="D959">
+        <v>91.125</v>
+      </c>
+      <c r="E959">
+        <v>11.962999999999999</v>
+      </c>
+      <c r="F959">
+        <v>16.295999999999999</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A960">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B960">
+        <v>-0.44500000000000001</v>
+      </c>
+      <c r="C960">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="D960">
+        <v>-14.404</v>
+      </c>
+      <c r="E960">
+        <v>3.113</v>
+      </c>
+      <c r="F960">
+        <v>-9.2159999999999993</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A961">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="B961">
+        <v>-0.39</v>
+      </c>
+      <c r="C961">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D961">
+        <v>-99.792000000000002</v>
+      </c>
+      <c r="E961">
+        <v>-2.0139999999999998</v>
+      </c>
+      <c r="F961">
+        <v>-25.513000000000002</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A962">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="B962">
+        <v>-0.12</v>
+      </c>
+      <c r="C962">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="D962">
+        <v>-245.178</v>
+      </c>
+      <c r="E962">
+        <v>20.690999999999999</v>
+      </c>
+      <c r="F962">
+        <v>-80.382999999999996</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A963">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="B963">
+        <v>0.11</v>
+      </c>
+      <c r="C963">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="D963">
+        <v>-125.42700000000001</v>
+      </c>
+      <c r="E963">
+        <v>-3.54</v>
+      </c>
+      <c r="F963">
+        <v>-41.076999999999998</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A964">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="B964">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C964">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="D964">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="E964">
+        <v>-4.7610000000000001</v>
+      </c>
+      <c r="F964">
+        <v>7.7510000000000003</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A965">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="B965">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="C965">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="D965">
+        <v>182.06800000000001</v>
+      </c>
+      <c r="E965">
+        <v>-21.178999999999998</v>
+      </c>
+      <c r="F965">
+        <v>30.457000000000001</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A966">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="B966">
+        <v>-0.32600000000000001</v>
+      </c>
+      <c r="C966">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D966">
+        <v>232.239</v>
+      </c>
+      <c r="E966">
+        <v>-21.056999999999999</v>
+      </c>
+      <c r="F966">
+        <v>47.18</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A967">
+        <v>6.2E-2</v>
+      </c>
+      <c r="B967">
+        <v>-0.66300000000000003</v>
+      </c>
+      <c r="C967">
+        <v>0.6</v>
+      </c>
+      <c r="D967">
+        <v>127.80800000000001</v>
+      </c>
+      <c r="E967">
+        <v>20.324999999999999</v>
+      </c>
+      <c r="F967">
+        <v>14.954000000000001</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A968">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="B968">
+        <v>-0.54900000000000004</v>
+      </c>
+      <c r="C968">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="D968">
+        <v>107.056</v>
+      </c>
+      <c r="E968">
+        <v>-3.4180000000000001</v>
+      </c>
+      <c r="F968">
+        <v>-6.47</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A969">
+        <v>0.01</v>
+      </c>
+      <c r="B969">
+        <v>-0.64900000000000002</v>
+      </c>
+      <c r="C969">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="D969">
+        <v>47.484999999999999</v>
+      </c>
+      <c r="E969">
+        <v>6.7140000000000004</v>
+      </c>
+      <c r="F969">
+        <v>-10.315</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A970">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="B970">
+        <v>-0.67400000000000004</v>
+      </c>
+      <c r="C970">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D970">
+        <v>66.832999999999998</v>
+      </c>
+      <c r="E970">
+        <v>7.4459999999999997</v>
+      </c>
+      <c r="F970">
+        <v>-9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A971">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B971">
+        <v>-0.70099999999999996</v>
+      </c>
+      <c r="C971">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="D971">
+        <v>20.141999999999999</v>
+      </c>
+      <c r="E971">
+        <v>16.173999999999999</v>
+      </c>
+      <c r="F971">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A972">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="B972">
+        <v>-0.72499999999999998</v>
+      </c>
+      <c r="C972">
+        <v>0.74</v>
+      </c>
+      <c r="D972">
+        <v>12.695</v>
+      </c>
+      <c r="E972">
+        <v>20.141999999999999</v>
+      </c>
+      <c r="F972">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A973">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="B973">
+        <v>-0.74</v>
+      </c>
+      <c r="C973">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D973">
+        <v>-27.649000000000001</v>
+      </c>
+      <c r="E973">
+        <v>6.3479999999999999</v>
+      </c>
+      <c r="F973">
+        <v>-0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A974">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="B974">
+        <v>-0.64200000000000002</v>
+      </c>
+      <c r="C974">
+        <v>0.873</v>
+      </c>
+      <c r="D974">
+        <v>-171.26499999999999</v>
+      </c>
+      <c r="E974">
+        <v>18.677</v>
+      </c>
+      <c r="F974">
+        <v>-24.902000000000001</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A975">
+        <v>-0.02</v>
+      </c>
+      <c r="B975">
+        <v>-0.48799999999999999</v>
+      </c>
+      <c r="C975">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="D975">
+        <v>-66.894999999999996</v>
+      </c>
+      <c r="E975">
+        <v>-17.882999999999999</v>
+      </c>
+      <c r="F975">
+        <v>-7.5679999999999996</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A976">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B976">
+        <v>-0.45100000000000001</v>
+      </c>
+      <c r="C976">
+        <v>0.88</v>
+      </c>
+      <c r="D976">
+        <v>-140.25899999999999</v>
+      </c>
+      <c r="E976">
+        <v>-1.587</v>
+      </c>
+      <c r="F976">
+        <v>-6.5919999999999996</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A977">
+        <v>-0.03</v>
+      </c>
+      <c r="B977">
+        <v>-0.27600000000000002</v>
+      </c>
+      <c r="C977">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D977">
+        <v>-101.13500000000001</v>
+      </c>
+      <c r="E977">
+        <v>9.0329999999999995</v>
+      </c>
+      <c r="F977">
+        <v>-14.709</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A978">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="B978">
+        <v>-0.36</v>
+      </c>
+      <c r="C978">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D978">
+        <v>-14.16</v>
+      </c>
+      <c r="E978">
+        <v>1.7090000000000001</v>
+      </c>
+      <c r="F978">
+        <v>-1.77</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A979">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="B979">
+        <v>-0.33500000000000002</v>
+      </c>
+      <c r="C979">
+        <v>0.83</v>
+      </c>
+      <c r="D979">
+        <v>5.5540000000000003</v>
+      </c>
+      <c r="E979">
+        <v>2.9910000000000001</v>
+      </c>
+      <c r="F979">
+        <v>-4.5780000000000003</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A980">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="B980">
+        <v>-0.32600000000000001</v>
+      </c>
+      <c r="C980">
+        <v>0.872</v>
+      </c>
+      <c r="D980">
+        <v>114.136</v>
+      </c>
+      <c r="E980">
+        <v>-15.747</v>
+      </c>
+      <c r="F980">
+        <v>19.957999999999998</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A981">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B981">
+        <v>-0.48499999999999999</v>
+      </c>
+      <c r="C981">
+        <v>0.747</v>
+      </c>
+      <c r="D981">
+        <v>144.65299999999999</v>
+      </c>
+      <c r="E981">
+        <v>-4.883</v>
+      </c>
+      <c r="F981">
+        <v>23.925999999999998</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A982">
+        <v>2.3E-2</v>
+      </c>
+      <c r="B982">
+        <v>-0.60599999999999998</v>
+      </c>
+      <c r="C982">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D982">
+        <v>147.94900000000001</v>
+      </c>
+      <c r="E982">
+        <v>-5.3710000000000004</v>
+      </c>
+      <c r="F982">
+        <v>14.771000000000001</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A983">
+        <v>1E-3</v>
+      </c>
+      <c r="B983">
+        <v>-0.72899999999999998</v>
+      </c>
+      <c r="C983">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="D983">
+        <v>117.554</v>
+      </c>
+      <c r="E983">
+        <v>7.141</v>
+      </c>
+      <c r="F983">
+        <v>1.282</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A984">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="B984">
+        <v>-0.77500000000000002</v>
+      </c>
+      <c r="C984">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D984">
+        <v>102.417</v>
+      </c>
+      <c r="E984">
+        <v>3.8450000000000002</v>
+      </c>
+      <c r="F984">
+        <v>-1.526</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A985">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="B985">
+        <v>-0.85</v>
+      </c>
+      <c r="C985">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="D985">
+        <v>73.424999999999997</v>
+      </c>
+      <c r="E985">
+        <v>-2.5630000000000002</v>
+      </c>
+      <c r="F985">
+        <v>-6.0419999999999998</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A986">
+        <v>2.3E-2</v>
+      </c>
+      <c r="B986">
+        <v>-0.89200000000000002</v>
+      </c>
+      <c r="C986">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D986">
+        <v>57.860999999999997</v>
+      </c>
+      <c r="E986">
+        <v>14.954000000000001</v>
+      </c>
+      <c r="F986">
+        <v>-2.8079999999999998</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A987">
+        <v>0.13</v>
+      </c>
+      <c r="B987">
+        <v>-0.874</v>
+      </c>
+      <c r="C987">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D987">
+        <v>-2.319</v>
+      </c>
+      <c r="E987">
+        <v>16.907</v>
+      </c>
+      <c r="F987">
+        <v>9.766</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A988">
+        <v>0.122</v>
+      </c>
+      <c r="B988">
+        <v>-0.82099999999999995</v>
+      </c>
+      <c r="C988">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D988">
+        <v>-116.63800000000001</v>
+      </c>
+      <c r="E988">
+        <v>18.738</v>
+      </c>
+      <c r="F988">
+        <v>-11.840999999999999</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A989">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="B989">
+        <v>-0.70899999999999996</v>
+      </c>
+      <c r="C989">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D989">
+        <v>-153.25899999999999</v>
+      </c>
+      <c r="E989">
+        <v>-18.126999999999999</v>
+      </c>
+      <c r="F989">
+        <v>-3.9060000000000001</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A990">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="B990">
+        <v>-0.57799999999999996</v>
+      </c>
+      <c r="C990">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="D990">
+        <v>-146.79</v>
+      </c>
+      <c r="E990">
+        <v>-10.803000000000001</v>
+      </c>
+      <c r="F990">
+        <v>7.4459999999999997</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A991">
+        <v>-2E-3</v>
+      </c>
+      <c r="B991">
+        <v>-0.499</v>
+      </c>
+      <c r="C991">
+        <v>0.871</v>
+      </c>
+      <c r="D991">
+        <v>-134.76599999999999</v>
+      </c>
+      <c r="E991">
+        <v>-0.48799999999999999</v>
+      </c>
+      <c r="F991">
+        <v>8.5449999999999999</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A992">
+        <v>0.01</v>
+      </c>
+      <c r="B992">
+        <v>-0.40799999999999997</v>
+      </c>
+      <c r="C992">
+        <v>0.83</v>
+      </c>
+      <c r="D992">
+        <v>-139.58699999999999</v>
+      </c>
+      <c r="E992">
+        <v>-7.69</v>
+      </c>
+      <c r="F992">
+        <v>5.2489999999999997</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A993">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B993">
+        <v>-0.27100000000000002</v>
+      </c>
+      <c r="C993">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D993">
+        <v>-146.11799999999999</v>
+      </c>
+      <c r="E993">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="F993">
+        <v>-11.292</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A994">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="B994">
+        <v>-0.17899999999999999</v>
+      </c>
+      <c r="C994">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D994">
+        <v>-77.515000000000001</v>
+      </c>
+      <c r="E994">
+        <v>3.113</v>
+      </c>
+      <c r="F994">
+        <v>-2.625</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A995">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="B995">
+        <v>-0.16300000000000001</v>
+      </c>
+      <c r="C995">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="D995">
+        <v>121.82599999999999</v>
+      </c>
+      <c r="E995">
+        <v>-20.02</v>
+      </c>
+      <c r="F995">
+        <v>37.475999999999999</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A996">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="B996">
+        <v>-0.39600000000000002</v>
+      </c>
+      <c r="C996">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D996">
+        <v>102.47799999999999</v>
+      </c>
+      <c r="E996">
+        <v>-7.69</v>
+      </c>
+      <c r="F996">
+        <v>35.460999999999999</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A997">
+        <v>0.108</v>
+      </c>
+      <c r="B997">
+        <v>-0.36399999999999999</v>
+      </c>
+      <c r="C997">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="D997">
+        <v>100.52500000000001</v>
+      </c>
+      <c r="E997">
+        <v>10.986000000000001</v>
+      </c>
+      <c r="F997">
+        <v>4.3949999999999996</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A998">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="B998">
+        <v>-0.47399999999999998</v>
+      </c>
+      <c r="C998">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="D998">
+        <v>-8.423</v>
+      </c>
+      <c r="E998">
+        <v>12.268000000000001</v>
+      </c>
+      <c r="F998">
+        <v>-15.747</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A999">
+        <v>9.4E-2</v>
+      </c>
+      <c r="B999">
+        <v>-0.20699999999999999</v>
+      </c>
+      <c r="C999">
+        <v>1.036</v>
+      </c>
+      <c r="D999">
+        <v>-120.97199999999999</v>
+      </c>
+      <c r="E999">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F999">
+        <v>-55.847000000000001</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1000">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="B1000">
+        <v>-0.16600000000000001</v>
+      </c>
+      <c r="C1000">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="D1000">
+        <v>-74.950999999999993</v>
+      </c>
+      <c r="E1000">
+        <v>-2.625</v>
+      </c>
+      <c r="F1000">
+        <v>-29.419</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
